--- a/biology/Médecine/Articulation_carpo-métacarpienne/Articulation_carpo-métacarpienne.xlsx
+++ b/biology/Médecine/Articulation_carpo-métacarpienne/Articulation_carpo-métacarpienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_carpo-m%C3%A9tacarpienne</t>
+          <t>Articulation_carpo-métacarpienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations carpo-métacarpiennes sont les quatre articulations du poignet qui unissent la rangée distale des os du carpe et les bases proximales des deuxième, troisième, quatrième et cinquième métacarpiens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_carpo-m%C3%A9tacarpienne</t>
+          <t>Articulation_carpo-métacarpienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre articulations carpo-métacarpiennes sont des articulations planes.
 L'ensemble forme une articulation composée avec une cavité articulaire unique qui communique avec celle des l'articulations médio-carpienne et intermétacarpiennes. La cavité articulaire de l'articulation carpo-métacarpienne du pouce est indépendante.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_carpo-m%C3%A9tacarpienne</t>
+          <t>Articulation_carpo-métacarpienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Moyens d'union</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre articulations carpo-métacarpiennes sont consolidées par les ligaments carpo-métarcarpiens palmaires ente les faces palmaires des os du carpe et celles des deuxième, troisième, quatrième et cinquième métacarpes, et par les ligaments carpo-métarcarpiens dorsaux ente les faces dorsales des os du carpe et celles des deuxième, troisième, quatrième et cinquième métacarpes
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Articulation_carpo-m%C3%A9tacarpienne</t>
+          <t>Articulation_carpo-métacarpienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces articulations sont peu mobiles.
 Les articulations du deuxième et cinquième métacarpiens sont immobiles.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Articulation_carpo-m%C3%A9tacarpienne</t>
+          <t>Articulation_carpo-métacarpienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arthrose des articulations carpo-métacarpiennes est un type d'artropathie qui résulte de la dégradation du cartilage articulaire et de l'os sous-jacent.
 </t>
